--- a/HK.xlsx
+++ b/HK.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>太平山夜景</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,14 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2/6號 16:35 到 HKG 18:30  EVA AIR BR 871</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/10 HKG 21:50 到 TPE 23:35  EVA AIR BR 810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>澳洲牛奶公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +103,29 @@
   <si>
     <t>住宿地點 六國酒店(灣仔) 2/6~10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/6號(星期五) 16:35 到 HKG 18:30  EVA AIR BR 871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/10(星期二) HKG 21:50 到 TPE 23:35  EVA AIR BR 810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合益泰</t>
+  </si>
+  <si>
+    <t>佳佳甜品</t>
+  </si>
+  <si>
+    <t>肥姐小食</t>
+  </si>
+  <si>
+    <t>通達食店</t>
+  </si>
+  <si>
+    <t>多娜麵包</t>
   </si>
 </sst>
 </file>
@@ -435,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -473,92 +488,117 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/HK.xlsx
+++ b/HK.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E66348-D694-4CB8-997B-48FB6E03C4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>太平山夜景</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,105 +34,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乾啤燒鵝</t>
+    <t>澳洲牛奶公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再興燒臘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港去澳門來回船票安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳門一日遊(請安排配合賭場接駁觀光、避開假日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍妮曲奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檸檬王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲奇四重奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>維多利亞港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙田馬場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆記煲仔小菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bake house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精華冰廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝香園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港一點心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿地點 六國酒店(灣仔) 2/6~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/6號(星期五) 16:35 到 HKG 18:30  EVA AIR BR 871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/10(星期二) HKG 21:50 到 TPE 23:35  EVA AIR BR 810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合益泰</t>
+  </si>
+  <si>
+    <t>佳佳甜品</t>
+  </si>
+  <si>
+    <t>肥姐小食</t>
+  </si>
+  <si>
+    <t>通達食店</t>
+  </si>
+  <si>
+    <t>多娜麵包</t>
+  </si>
+  <si>
+    <t>昂坪纜車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪獸大夏</t>
+  </si>
+  <si>
+    <t>半山扶手電梯</t>
+  </si>
+  <si>
+    <t>石板街</t>
+  </si>
+  <si>
+    <t>嘉咸街壁畫</t>
+  </si>
+  <si>
+    <t>女人街 金魚街 波鞋街</t>
+  </si>
+  <si>
+    <t>換錢所(確保前兩天可以換到錢)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蘭芳園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳洲牛奶公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再興燒臘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>換錢所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港去澳門來回船票安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳門一日遊(請安排配合賭場接駁觀光、避開假日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍妮曲奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檸檬王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲奇四重奏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>維多利亞港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙田馬場</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆記煲仔小菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bake house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精華冰廳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勝香園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港一點心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宿地點 六國酒店(灣仔) 2/6~10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/6號(星期五) 16:35 到 HKG 18:30  EVA AIR BR 871</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/10(星期二) HKG 21:50 到 TPE 23:35  EVA AIR BR 810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合益泰</t>
-  </si>
-  <si>
-    <t>佳佳甜品</t>
-  </si>
-  <si>
-    <t>肥姐小食</t>
-  </si>
-  <si>
-    <t>通達食店</t>
-  </si>
-  <si>
-    <t>多娜麵包</t>
+  </si>
+  <si>
+    <t>乾牌燒鵝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘭桂坊 廟街夜市</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,156 +471,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
